--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278187</v>
+        <v>278189</v>
       </c>
       <c r="D10" t="n">
-        <v>29588</v>
+        <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752129416</v>
+        <v>1752190865</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37906</v>
+        <v>37909</v>
       </c>
       <c r="D13" t="n">
         <v>8466</v>
       </c>
       <c r="E13" t="n">
-        <v>97616999</v>
+        <v>97626384</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108916</v>
+        <v>108917</v>
       </c>
       <c r="D19" t="n">
         <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344651124</v>
+        <v>344661124</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40862</v>
+        <v>40863</v>
       </c>
       <c r="D63" t="n">
         <v>9909</v>
       </c>
       <c r="E63" t="n">
-        <v>116436014</v>
+        <v>116446014</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136566</v>
+        <v>136567</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863015376</v>
+        <v>863020929</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>48902</v>
+        <v>48903</v>
       </c>
       <c r="D103" t="n">
         <v>10625</v>
       </c>
       <c r="E103" t="n">
-        <v>138392325</v>
+        <v>138395825</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17545</v>
+        <v>17547</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38585419</v>
+        <v>38603446</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19697</v>
+        <v>19700</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56402512</v>
+        <v>56409367</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D121" t="n">
         <v>1306</v>
       </c>
       <c r="E121" t="n">
-        <v>11511893</v>
+        <v>11514574</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9687</v>
+        <v>9689</v>
       </c>
       <c r="D122" t="n">
         <v>1445</v>
       </c>
       <c r="E122" t="n">
-        <v>31911349</v>
+        <v>31925215</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284914</v>
+        <v>284917</v>
       </c>
       <c r="D168" t="n">
         <v>58121</v>
       </c>
       <c r="E168" t="n">
-        <v>1208094318</v>
+        <v>1208113638</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367241</v>
+        <v>367253</v>
       </c>
       <c r="D170" t="n">
-        <v>38107</v>
+        <v>38108</v>
       </c>
       <c r="E170" t="n">
-        <v>2843612597</v>
+        <v>2843759227</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115093</v>
+        <v>115097</v>
       </c>
       <c r="D171" t="n">
-        <v>20262</v>
+        <v>20263</v>
       </c>
       <c r="E171" t="n">
-        <v>444569953</v>
+        <v>444575953</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54380</v>
+        <v>54381</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151839060</v>
+        <v>151843423</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357145</v>
+        <v>357149</v>
       </c>
       <c r="D174" t="n">
         <v>69786</v>
       </c>
       <c r="E174" t="n">
-        <v>1016423948</v>
+        <v>1016456243</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125494</v>
+        <v>125501</v>
       </c>
       <c r="D175" t="n">
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>810714659</v>
+        <v>811321192</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235639</v>
+        <v>235645</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>811919052</v>
+        <v>812018232</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19695</v>
+        <v>19700</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>65984473</v>
+        <v>66017381</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13094</v>
+        <v>13100</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32950273</v>
+        <v>32991663</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11632370</v>
+        <v>11633084</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11114</v>
+        <v>11117</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>43983889</v>
+        <v>44051783</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6416</v>
+        <v>6418</v>
       </c>
       <c r="D210" t="n">
         <v>979</v>
       </c>
       <c r="E210" t="n">
-        <v>18539789</v>
+        <v>18550633</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11065015</v>
+        <v>11065449</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="D220" t="n">
         <v>521</v>
       </c>
       <c r="E220" t="n">
-        <v>11655990</v>
+        <v>11657490</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11152,13 +11152,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>38981</v>
+        <v>38982</v>
       </c>
       <c r="D262" t="n">
         <v>8167</v>
       </c>
       <c r="E262" t="n">
-        <v>124703774</v>
+        <v>124708750</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216629</v>
+        <v>216630</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209877432</v>
+        <v>1209898249</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
